--- a/Assets/Resources/TartDataFiles/임시타르트데이터파일양식.xlsx
+++ b/Assets/Resources/TartDataFiles/임시타르트데이터파일양식.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\청강대\2학년 2학기\프로토타입수업 1차\Proto10Team\Assets\Resources\TartDataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{82F5F8EF-9897-4914-AF10-B215AB3E39E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3614EF9C-C496-41A2-AD7F-83929B072319}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E030B26D-7320-4BF7-9B0D-14ECCEE32928}"/>
   </bookViews>
@@ -459,7 +459,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>

--- a/Assets/Resources/TartDataFiles/임시타르트데이터파일양식.xlsx
+++ b/Assets/Resources/TartDataFiles/임시타르트데이터파일양식.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\청강대\2학년 2학기\프로토타입수업 1차\Proto10Team\Assets\Resources\TartDataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3614EF9C-C496-41A2-AD7F-83929B072319}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B11C7B75-610F-4C3C-A392-8BCDFE5922CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E030B26D-7320-4BF7-9B0D-14ECCEE32928}"/>
+    <workbookView xWindow="28692" yWindow="-108" windowWidth="29016" windowHeight="15816" xr2:uid="{E030B26D-7320-4BF7-9B0D-14ECCEE32928}"/>
   </bookViews>
   <sheets>
     <sheet name="Tart_25" sheetId="1" r:id="rId1"/>
@@ -459,7 +459,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -503,7 +503,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -529,7 +529,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -555,7 +555,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
@@ -581,7 +581,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1">
         <v>4</v>
@@ -607,7 +607,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="1">
         <v>5</v>
@@ -633,7 +633,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="1">
         <v>6</v>
@@ -659,7 +659,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -685,7 +685,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
@@ -711,7 +711,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" s="1">
         <v>3</v>
@@ -737,7 +737,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" s="1">
         <v>4</v>
@@ -763,7 +763,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" s="1">
         <v>5</v>
@@ -789,7 +789,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" s="1">
         <v>6</v>
@@ -815,7 +815,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
@@ -841,7 +841,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15" s="1">
         <v>2</v>
@@ -867,7 +867,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16" s="1">
         <v>3</v>
@@ -893,7 +893,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17" s="1">
         <v>4</v>
@@ -919,7 +919,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C18" s="1">
         <v>5</v>
